--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_12_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1509027.462088942</v>
+        <v>1487429.411132395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11524483.0918237</v>
+        <v>11494692.96945682</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673264</v>
+        <v>4145216.069219809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9322428.294328133</v>
+        <v>9333969.095089611</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.93991247395533</v>
+        <v>10.58695345037629</v>
       </c>
       <c r="G2" t="n">
-        <v>25.79717485420766</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S3" t="n">
-        <v>33.93991247395533</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.44627538834367</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F5" t="n">
-        <v>38.48106384277808</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.48106384277808</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>252.8181490872788</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>252.8181490872788</v>
+        <v>63.31131209564988</v>
       </c>
       <c r="G8" t="n">
-        <v>252.8181490872788</v>
+        <v>251.1390007463961</v>
       </c>
       <c r="H8" t="n">
-        <v>221.3167269698833</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.365498746191776</v>
+        <v>2.376810404598018</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>155.5151093571777</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>251.1390007463961</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>251.1390007463961</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.89430379355072</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0786145121132</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.0191475798447</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.84625648687559</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.62291341169777</v>
+        <v>22.15773728580861</v>
       </c>
       <c r="S9" t="n">
-        <v>148.1881591415672</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>163.0614557591985</v>
       </c>
     </row>
     <row r="10">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>106.77510154139</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9305274666126</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.5597943979213</v>
+        <v>34.63165105670424</v>
       </c>
       <c r="J10" t="n">
-        <v>18.38523136314977</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>252.8181490872788</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>56.98500889837835</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>127.6501362820648</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5976297100103</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.75171326570662</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>139.8060972184458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.92518451681089</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>81.72898226868554</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>304.3207779701066</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.21642251014198</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>205.6368254889302</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4782705995521</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>74.45955716986279</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>48.40484960526612</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>54.87175400786737</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247714</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>98.39622862162582</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>99.50249420969756</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>120.6088074159611</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>150.2062474346968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>175.5903906093058</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>63.4254565631671</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.4691038658693</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>168.1158122680958</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>282.7823572636607</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.6814482830483</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>199.7325946875385</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>33.38304376058925</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>218.3799969300104</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>105.0023863360915</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>59.95016842792712</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>150.2062474346968</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>98.5550581270802</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>89.8667662700847</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.47903694800367</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>53.45227442954774</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>162.0216793824549</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>213.1751740426437</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>36.63188116405664</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>2.437011177794143</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F2" t="n">
-        <v>67.19417015045701</v>
+        <v>22.21753790365739</v>
       </c>
       <c r="G2" t="n">
-        <v>41.13641777246947</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="H2" t="n">
-        <v>41.13641777246947</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4333,16 +4333,16 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>34.95810984817397</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L2" t="n">
-        <v>34.95810984817397</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="M2" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.55862319738975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102.1591365466055</v>
       </c>
       <c r="O2" t="n">
         <v>102.1591365466055</v>
@@ -4354,28 +4354,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.7596498958213</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="D3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="F3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="G3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="H3" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.715192997916426</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>36.31570634713221</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="L3" t="n">
-        <v>69.91621969634798</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="M3" t="n">
-        <v>103.5167330455638</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7596498958213</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7596498958213</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="P3" t="n">
-        <v>135.7596498958213</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="U3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="J4" t="n">
         <v>20.33943493601357</v>
@@ -4509,31 +4509,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.18765455406</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
-        <v>123.18765455406</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
-        <v>88.90491468137789</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>88.90491468137789</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U4" t="n">
-        <v>54.62217480869573</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.33943493601357</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F5" t="n">
-        <v>76.18473245640914</v>
+        <v>30.36947024985406</v>
       </c>
       <c r="G5" t="n">
-        <v>37.31497099905754</v>
+        <v>15.05437072730914</v>
       </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>15.05437072730914</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4573,19 +4573,19 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177255</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
-        <v>41.17473831177255</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N5" t="n">
-        <v>79.27099151612285</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6672038492714</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4594,25 +4594,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C6" t="n">
         <v>41.94824656477385</v>
       </c>
       <c r="D6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
@@ -4649,22 +4649,22 @@
         <v>9.385105424419159</v>
       </c>
       <c r="K6" t="n">
-        <v>39.63549575806142</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>39.63549575806142</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
-        <v>39.63549575806142</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73174896241173</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="O6" t="n">
+        <v>85.57761183311976</v>
+      </c>
+      <c r="P6" t="n">
         <v>115.828002166762</v>
-      </c>
-      <c r="P6" t="n">
-        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4673,25 +4673,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U6" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="V6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="D7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="E7" t="n">
-        <v>95.90108948244061</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="F7" t="n">
-        <v>95.90108948244061</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="G7" t="n">
         <v>57.03132802508901</v>
@@ -4749,28 +4749,28 @@
         <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="S7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1009.893304686295</v>
+        <v>337.7176986880409</v>
       </c>
       <c r="C8" t="n">
-        <v>1009.893304686295</v>
+        <v>337.7176986880409</v>
       </c>
       <c r="D8" t="n">
-        <v>1009.893304686295</v>
+        <v>337.7176986880409</v>
       </c>
       <c r="E8" t="n">
-        <v>754.5214369213671</v>
+        <v>337.7176986880409</v>
       </c>
       <c r="F8" t="n">
-        <v>499.149569156439</v>
+        <v>273.7668783894047</v>
       </c>
       <c r="G8" t="n">
-        <v>243.777701391511</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="H8" t="n">
-        <v>20.2254519269823</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="I8" t="n">
-        <v>20.2254519269823</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="J8" t="n">
-        <v>39.63316739757098</v>
+        <v>38.1460729133186</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4588202027242</v>
+        <v>115.9442852231491</v>
       </c>
       <c r="L8" t="n">
-        <v>255.3913630325231</v>
+        <v>249.3616088399481</v>
       </c>
       <c r="M8" t="n">
-        <v>438.3119457717655</v>
+        <v>429.4835255738698</v>
       </c>
       <c r="N8" t="n">
-        <v>628.8061831561433</v>
+        <v>678.1111363128018</v>
       </c>
       <c r="O8" t="n">
-        <v>795.3492284901574</v>
+        <v>841.9687190346185</v>
       </c>
       <c r="P8" t="n">
-        <v>902.9888637142518</v>
+        <v>947.3163740495759</v>
       </c>
       <c r="Q8" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="R8" t="n">
-        <v>1009.893304686295</v>
+        <v>1002.155184395081</v>
       </c>
       <c r="S8" t="n">
-        <v>1009.893304686295</v>
+        <v>845.069215347427</v>
       </c>
       <c r="T8" t="n">
-        <v>1009.893304686295</v>
+        <v>845.069215347427</v>
       </c>
       <c r="U8" t="n">
-        <v>1009.893304686295</v>
+        <v>845.069215347427</v>
       </c>
       <c r="V8" t="n">
-        <v>1009.893304686295</v>
+        <v>845.069215347427</v>
       </c>
       <c r="W8" t="n">
-        <v>1009.893304686295</v>
+        <v>591.3934570177339</v>
       </c>
       <c r="X8" t="n">
-        <v>1009.893304686295</v>
+        <v>591.3934570177339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1009.893304686295</v>
+        <v>337.7176986880409</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>610.7894028639705</v>
+        <v>649.2505719806605</v>
       </c>
       <c r="C9" t="n">
-        <v>610.7894028639705</v>
+        <v>474.7975426995335</v>
       </c>
       <c r="D9" t="n">
-        <v>610.7894028639705</v>
+        <v>325.8631330382822</v>
       </c>
       <c r="E9" t="n">
-        <v>451.5519478585151</v>
+        <v>166.6256780328267</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0173898854</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="G9" t="n">
-        <v>167.5642439135685</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="H9" t="n">
-        <v>66.53480191372532</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2254519269823</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="J9" t="n">
-        <v>137.7968323351157</v>
+        <v>136.8568043205224</v>
       </c>
       <c r="K9" t="n">
-        <v>203.5453064189229</v>
+        <v>201.2282153591609</v>
       </c>
       <c r="L9" t="n">
-        <v>338.2747848454159</v>
+        <v>334.1060625812897</v>
       </c>
       <c r="M9" t="n">
-        <v>514.8545995624459</v>
+        <v>508.5251110186285</v>
       </c>
       <c r="N9" t="n">
-        <v>710.5166014611457</v>
+        <v>701.9691575837744</v>
       </c>
       <c r="O9" t="n">
-        <v>867.2893123249294</v>
+        <v>856.7128726301024</v>
       </c>
       <c r="P9" t="n">
-        <v>973.7801678761726</v>
+        <v>984.3774569981496</v>
       </c>
       <c r="Q9" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="R9" t="n">
-        <v>989.4312696706326</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="S9" t="n">
-        <v>839.7462604367263</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="T9" t="n">
-        <v>839.7462604367263</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="U9" t="n">
-        <v>839.7462604367263</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="V9" t="n">
-        <v>839.7462604367263</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="W9" t="n">
-        <v>839.7462604367263</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="X9" t="n">
-        <v>631.8947602311935</v>
+        <v>982.1744501716361</v>
       </c>
       <c r="Y9" t="n">
-        <v>631.8947602311935</v>
+        <v>817.4659090007285</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>755.900728584187</v>
+        <v>374.125408113797</v>
       </c>
       <c r="C10" t="n">
-        <v>586.9645456562802</v>
+        <v>205.1892251858901</v>
       </c>
       <c r="D10" t="n">
-        <v>586.9645456562802</v>
+        <v>55.07258577355435</v>
       </c>
       <c r="E10" t="n">
-        <v>479.1109077356842</v>
+        <v>55.07258577355435</v>
       </c>
       <c r="F10" t="n">
-        <v>332.2209602377739</v>
+        <v>55.07258577355435</v>
       </c>
       <c r="G10" t="n">
-        <v>163.6042658270541</v>
+        <v>55.07258577355435</v>
       </c>
       <c r="H10" t="n">
-        <v>163.6042658270541</v>
+        <v>55.07258577355435</v>
       </c>
       <c r="I10" t="n">
-        <v>38.79639269784066</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="J10" t="n">
-        <v>20.2254519269823</v>
+        <v>20.09112005971168</v>
       </c>
       <c r="K10" t="n">
-        <v>120.1518316195028</v>
+        <v>119.1868607672883</v>
       </c>
       <c r="L10" t="n">
-        <v>303.5496287804837</v>
+        <v>301.5217260065344</v>
       </c>
       <c r="M10" t="n">
-        <v>507.3060147126347</v>
+        <v>504.1573992612688</v>
       </c>
       <c r="N10" t="n">
-        <v>711.6521456270876</v>
+        <v>707.4094655408583</v>
       </c>
       <c r="O10" t="n">
-        <v>884.3825763918029</v>
+        <v>879.1293505357843</v>
       </c>
       <c r="P10" t="n">
-        <v>1008.662617786138</v>
+        <v>1002.544695446889</v>
       </c>
       <c r="Q10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="R10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="S10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="T10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="U10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="V10" t="n">
-        <v>1011.272596349115</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="W10" t="n">
-        <v>755.900728584187</v>
+        <v>1004.556002985584</v>
       </c>
       <c r="X10" t="n">
-        <v>755.900728584187</v>
+        <v>776.5664520875669</v>
       </c>
       <c r="Y10" t="n">
-        <v>755.900728584187</v>
+        <v>555.7738729440367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,61 +5017,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943747</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C11" t="n">
-        <v>1308.370295943747</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D11" t="n">
-        <v>950.1045973369964</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E11" t="n">
-        <v>950.1045973369964</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
         <v>2755.806928794324</v>
@@ -5080,7 +5080,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
         <v>1698.509627919559</v>
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,7 +5135,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.6163259372719</v>
+        <v>567.2993462682273</v>
       </c>
       <c r="C13" t="n">
-        <v>748.680143009365</v>
+        <v>398.3631633403204</v>
       </c>
       <c r="D13" t="n">
-        <v>598.5635035970292</v>
+        <v>398.3631633403204</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>398.3631633403204</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5205,46 +5205,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.46409084602</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W13" t="n">
-        <v>1548.046920809059</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X13" t="n">
-        <v>1320.057369911042</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.264790767512</v>
+        <v>748.947811098467</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.52858457759</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371781</v>
+        <v>905.5765942093301</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>547.3108956025796</v>
       </c>
       <c r="E14" t="n">
-        <v>66.5121164321834</v>
+        <v>547.3108956025796</v>
       </c>
       <c r="F14" t="n">
-        <v>66.5121164321834</v>
+        <v>547.3108956025796</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3267.095534218452</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3267.095534218452</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3013.565057492288</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V14" t="n">
-        <v>2682.502170148718</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.733514878603</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X14" t="n">
-        <v>1956.267756617523</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.128424641711</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D16" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1844.740020544366</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1555.63715367001</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1011.535495427162</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1514.348043559525</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1514.348043559525</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1514.348043559525</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1128.559790961281</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,19 +5515,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796417</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535337</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1514.348043559525</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5597,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.1326375818728</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1326375818728</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0159981695371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>260.0159981695371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0159981695371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1356.67533979849</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1101.990851592603</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>812.5736815556427</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>812.5736815556427</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>591.7811024121125</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1381.278680221566</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C20" t="n">
-        <v>1012.316163281155</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="D20" t="n">
-        <v>654.0504646744041</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>654.0504646744041</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>654.0504646744041</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X20" t="n">
-        <v>2158.0178522615</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y20" t="n">
-        <v>1767.878520285688</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2405.758056700422</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C22" t="n">
-        <v>2236.821873772515</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D22" t="n">
-        <v>2086.705234360179</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E22" t="n">
-        <v>1938.792140777786</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F22" t="n">
-        <v>1791.902193279876</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>1624.199356654595</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>1477.982169872453</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.188651572209</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674192</v>
+        <v>860.1103376645752</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.406521530662</v>
+        <v>860.1103376645752</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.62132134232</v>
+        <v>1642.123469845181</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1273.160952904769</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>914.8952542980185</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>529.1070016997742</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>118.1210969101666</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>69.22730943009982</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>69.22730943009982</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>69.22730943009982</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>258.1064403891252</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>591.9258140789716</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1176.004484225285</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1709.536388897209</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2256.315205955992</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2759.287676835329</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3154.062043192506</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3402.348404948189</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3461.365471504991</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3351.074803032086</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3145.097055416308</v>
       </c>
       <c r="U23" t="n">
-        <v>3159.889138986905</v>
+        <v>3145.097055416308</v>
       </c>
       <c r="V23" t="n">
-        <v>2828.826251643334</v>
+        <v>3145.097055416308</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.826251643334</v>
+        <v>2792.328400146194</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.360493382254</v>
+        <v>2418.862641885114</v>
       </c>
       <c r="Y23" t="n">
-        <v>2065.221161406442</v>
+        <v>2028.723309909302</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>944.2590474790247</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>769.8060181978977</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>620.8716085366465</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>461.634153531191</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>315.099595558076</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>178.7364953906941</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>88.23460102856158</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>69.22730943009982</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>162.9045789207171</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>401.1687779010642</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>767.8669382137294</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1215.143263436045</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1688.6663069905</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2099.627586408555</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2410.127177884658</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2567.768735531257</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2567.624382123773</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2438.186495617253</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2245.543495295108</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2017.475648429524</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1782.323540197781</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1528.08618346958</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1320.234683264047</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1112.474384499093</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>946.4157798573308</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>777.4795969294239</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>627.3629575170881</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>627.3629575170881</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>480.4730100191778</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>312.7701733938967</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>166.5529866117545</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>69.22730943009982</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>114.3499418770353</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>318.3371248259117</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>634.8969232744078</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>979.0539688739567</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1320.462345579821</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>1619.791944500235</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>1852.399444933894</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1930.009741086409</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1930.009741086409</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1738.323856913235</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1516.557241482761</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>1227.454374608405</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>1227.454374608405</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>1227.454374608405</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>1227.454374608405</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>1128.06424468757</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1712.341567565138</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C26" t="n">
-        <v>1343.379050624726</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D26" t="n">
-        <v>985.1133520179758</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E26" t="n">
-        <v>599.3250994197315</v>
+        <v>167.0196863409688</v>
       </c>
       <c r="F26" t="n">
-        <v>188.3391946301239</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G26" t="n">
-        <v>188.3391946301239</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6241,37 +6241,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y26" t="n">
-        <v>2098.94140762926</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>1645.778206672847</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>1645.778206672847</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1285.591601078694</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>916.6290841382822</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>558.3633855315318</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>172.5751329332875</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>172.5751329332875</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G29" t="n">
-        <v>172.5751329332875</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379707</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118627</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142816</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.3679798527295</v>
+        <v>531.3099827059877</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>362.3737997780809</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124868</v>
+        <v>362.3737997780809</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4607061956877</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4607061956877</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U31" t="n">
-        <v>1854.900232967364</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1600.215744761477</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.798574724517</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.809023826499</v>
+        <v>933.7510266797576</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0164446829692</v>
+        <v>712.9584475362275</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>3155.791869823214</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6791,13 +6791,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>332.773976541745</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6897,13 +6897,13 @@
         <v>880.2242361621292</v>
       </c>
       <c r="W34" t="n">
-        <v>880.2242361621292</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X34" t="n">
-        <v>652.2346852641118</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y34" t="n">
-        <v>431.4421061205817</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1381.278680221568</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C35" t="n">
-        <v>1012.316163281156</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>654.0504646744059</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>268.2622120761617</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>268.2622120761617</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>268.2622120761617</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,7 +6958,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.483610522581</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.017852261502</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.87852028569</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1311.909787855437</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C38" t="n">
-        <v>942.9472709150257</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D38" t="n">
-        <v>584.6815723082752</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E38" t="n">
-        <v>584.6815723082752</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3219.542805108066</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.509627919559</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7265,40 +7265,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>421.8708831972617</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>421.8708831972617</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>273.9577896148686</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>127.0678421169582</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>127.0678421169582</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>127.0678421169582</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7362,22 +7362,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W40" t="n">
-        <v>1645.778206672847</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>590.8070661251686</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1594.601034732593</v>
+        <v>1186.041037313967</v>
       </c>
       <c r="C41" t="n">
-        <v>1225.638517792182</v>
+        <v>817.078520373555</v>
       </c>
       <c r="D41" t="n">
-        <v>867.3728191854311</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E41" t="n">
-        <v>481.5845665871869</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3226.055257844443</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3020.077510228665</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3020.077510228665</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2689.014622885094</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2336.24596761498</v>
       </c>
       <c r="X41" t="n">
-        <v>1981.200874796715</v>
+        <v>1962.7802093539</v>
       </c>
       <c r="Y41" t="n">
-        <v>1981.200874796715</v>
+        <v>1572.640877378088</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>883.4114536130577</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.04692080906</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1285.852497586827</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1065.059918443297</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2139.863183736033</v>
+        <v>2107.513093752759</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1738.550576812348</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1380.284878205597</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528559</v>
+        <v>994.4966256073528</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389511</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218338</v>
@@ -7654,13 +7654,13 @@
         <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267227</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267227</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997113</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736033</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="Y44" t="n">
-        <v>2139.863183736033</v>
+        <v>2494.112933816881</v>
       </c>
     </row>
     <row r="45">
@@ -7748,7 +7748,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300937</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218338</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218338</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783661</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V46" t="n">
-        <v>1379.423165617947</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="W46" t="n">
-        <v>1090.005995580987</v>
+        <v>1222.27755415817</v>
       </c>
       <c r="X46" t="n">
-        <v>862.0164446829692</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8900576307836</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
@@ -7990,10 +7990,10 @@
         <v>248.0411260722765</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
         <v>251.8689757786171</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0360642081934</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>159.4573042434636</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,22 +8221,22 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>242.5511922549844</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709656</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>238.0901966419337</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>156.233447712962</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
@@ -8306,16 +8306,16 @@
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>150.2310236677773</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>163.1546825303321</v>
+        <v>163.154682530332</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>150.1458699897895</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>168.8471891366353</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>61.59325727450147</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>76.38747064731248</v>
+        <v>26.56633730019033</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>23.03250185832638</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.38920010881982</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>134.388340300914</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>325.7488327651022</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>279.2259094596466</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>26.83633293655892</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>127.6693347572246</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>271.1156284350076</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>51.26257727136494</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>137.8199670074837</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5552677716048</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>70.80938574888624</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>149.0462161317527</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>165.4434550539014</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>151.2500982191744</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>362.5168760481873</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>196.1234179510346</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>120.188424730469</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>307.3735515320139</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>173.9989569713593</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.5034079543403</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>207.1434510541748</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>231.1823078241534</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>19.55670439315892</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>159.6364462020391</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>103.4555813923929</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.150531898889</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>94.87516969978199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>217.6121281983127</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>94.04427615813316</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>188.496048811701</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.185375452084344</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>36.402251981911</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>75.5034079543403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.63270366109565</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>279.8643344083844</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>109.7677841506242</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>203.2512123885527</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>193.7008716990677</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.5057621597714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>284.0859871587969</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>916378.8990751286</v>
+        <v>916744.5201927681</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757512.9453161734</v>
+        <v>757512.9453161737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757512.9453161734</v>
+        <v>757512.9453161735</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757512.9453161734</v>
+        <v>757512.9453161735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757512.9453161736</v>
+        <v>772255.0178020799</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757512.9453161735</v>
+        <v>757512.9453161733</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757512.9453161736</v>
+        <v>757512.9453161735</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757512.9453161736</v>
+        <v>757512.9453161731</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757512.9453161736</v>
+        <v>757512.9453161735</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757512.9453161733</v>
+        <v>757512.9453161734</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>443296.2286621967</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.2286621967</v>
+        <v>443296.228662197</v>
       </c>
       <c r="G2" t="n">
-        <v>443296.2286621967</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="H2" t="n">
         <v>443296.2286621967</v>
       </c>
       <c r="I2" t="n">
-        <v>443296.2286621968</v>
+        <v>450111.1116600953</v>
       </c>
       <c r="J2" t="n">
         <v>443296.2286621967</v>
       </c>
       <c r="K2" t="n">
+        <v>443296.2286621966</v>
+      </c>
+      <c r="L2" t="n">
         <v>443296.2286621967</v>
       </c>
-      <c r="L2" t="n">
-        <v>443296.2286621968</v>
-      </c>
       <c r="M2" t="n">
-        <v>443296.2286621968</v>
+        <v>443296.2286621967</v>
       </c>
       <c r="N2" t="n">
         <v>443296.2286621968</v>
@@ -26371,13 +26371,13 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>540217.1638730394</v>
+        <v>536265.8406333902</v>
       </c>
       <c r="E3" t="n">
-        <v>575825.8978637056</v>
+        <v>579544.6878695602</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9025.335464986623</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335576</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491141</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>54246.7872416159</v>
+        <v>53821.80990887365</v>
       </c>
       <c r="M3" t="n">
-        <v>144185.2742669268</v>
+        <v>144603.7247500681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400260.8332988867</v>
+        <v>400260.8332988868</v>
       </c>
       <c r="C4" t="n">
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>253481.7890679248</v>
+        <v>254535.8948320982</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.57120705457</v>
+        <v>7940.571207054563</v>
       </c>
       <c r="F4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054563</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="H4" t="n">
-        <v>7940.571207054567</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
+        <v>11165.81074127231</v>
+      </c>
+      <c r="J4" t="n">
         <v>7940.571207054552</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7940.571207054564</v>
       </c>
       <c r="K4" t="n">
         <v>7940.571207054552</v>
@@ -26453,13 +26453,13 @@
         <v>7940.571207054552</v>
       </c>
       <c r="N4" t="n">
+        <v>7940.571207054567</v>
+      </c>
+      <c r="O4" t="n">
         <v>7940.571207054552</v>
       </c>
-      <c r="O4" t="n">
-        <v>7940.571207054563</v>
-      </c>
       <c r="P4" t="n">
-        <v>7940.571207054571</v>
+        <v>7940.571207054552</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>61818.84278975213</v>
+        <v>61629.44688255813</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76369.88723980976</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63673.43867293452</v>
+        <v>63673.43867293435</v>
       </c>
       <c r="C6" t="n">
         <v>87487.56913204439</v>
       </c>
       <c r="D6" t="n">
-        <v>-321840.6453189322</v>
+        <v>-318754.0319362623</v>
       </c>
       <c r="E6" t="n">
-        <v>-214776.5809699568</v>
+        <v>-221971.5602738725</v>
       </c>
       <c r="F6" t="n">
-        <v>361049.3168937488</v>
+        <v>357573.1275956878</v>
       </c>
       <c r="G6" t="n">
-        <v>361049.3168937491</v>
+        <v>357573.1275956881</v>
       </c>
       <c r="H6" t="n">
-        <v>361049.3168937489</v>
+        <v>357573.127595688</v>
       </c>
       <c r="I6" t="n">
-        <v>361049.3168937489</v>
+        <v>350335.9998005002</v>
       </c>
       <c r="J6" t="n">
-        <v>352169.1424344133</v>
+        <v>357573.1275956879</v>
       </c>
       <c r="K6" t="n">
-        <v>359880.5698482578</v>
+        <v>356404.3805501965</v>
       </c>
       <c r="L6" t="n">
-        <v>306802.5296521331</v>
+        <v>303751.3176868142</v>
       </c>
       <c r="M6" t="n">
-        <v>216864.0426268221</v>
+        <v>212969.4028456197</v>
       </c>
       <c r="N6" t="n">
-        <v>361049.316893749</v>
+        <v>357573.127595688</v>
       </c>
       <c r="O6" t="n">
-        <v>361049.3168937489</v>
+        <v>357573.1275956878</v>
       </c>
       <c r="P6" t="n">
-        <v>361049.3168937489</v>
+        <v>357573.1275956878</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>588.0687763874121</v>
+        <v>584.0640200540023</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,37 +26795,37 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>252.8181490872788</v>
+        <v>251.1390007463961</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>865.3413678762478</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26965,19 +26965,19 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>553.0475156682868</v>
+        <v>549.042759334877</v>
       </c>
       <c r="E3" t="n">
-        <v>501.707924205886</v>
+        <v>505.7126805392959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,34 +27017,34 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>214.3370852445007</v>
+        <v>212.657936903618</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5833063150137</v>
+        <v>580.2624546558966</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33.93991247395513</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395536</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822625</v>
+        <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>214.3370852445006</v>
+        <v>212.6579369036183</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5833063150142</v>
+        <v>580.2624546558966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>214.3370852445007</v>
+        <v>212.657936903618</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5833063150137</v>
+        <v>580.2624546558966</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.7939291895252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>396.2890922913351</v>
       </c>
       <c r="G2" t="n">
-        <v>389.4130465496237</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>172.9692497154156</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27435,7 +27435,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>352.2980261820983</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>107.3997417726358</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>77.81746130333066</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>53.75242741433431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S3" t="n">
-        <v>136.8238088593301</v>
+        <v>140.8694464262256</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27557,10 +27557,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>141.7561951138671</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>56.48524998443612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.24074707764554</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>189.3534617169419</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3768532711237</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>218.1977308498727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>343.4493062294837</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.1388258615819</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>193.1919953539578</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>138.8143779555968</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>187.4553623994157</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>198.9064661167063</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.4720922595622</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.4467624225806</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27821,13 +27821,13 @@
         <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>135.9727348210013</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>208.7138830980289</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>129.112220984983</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>154.0578966544327</v>
+        <v>343.5647336460615</v>
       </c>
       <c r="G8" t="n">
-        <v>160.1204928443893</v>
+        <v>161.8157407082204</v>
       </c>
       <c r="H8" t="n">
-        <v>93.94678125170259</v>
+        <v>315.428387460981</v>
       </c>
       <c r="I8" t="n">
-        <v>119.334094588795</v>
+        <v>119.9547714472625</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>155.1482414779915</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.7470211475047</v>
+        <v>212.8174968092112</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1565252611591</v>
+        <v>251.157813222995</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>98.10196797101696</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>135.0989379096575</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145.6388798563166</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.087228516302</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.1023407255633</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>46.14283513986867</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>148.3481604913029</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0662833599156</v>
+        <v>195.1010038417119</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8581648012974</v>
+        <v>225.8587315120992</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>42.62124001810591</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>39.65886110517921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9377491583614</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7987911417529</v>
+        <v>152.8629985465737</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>89.14531930762553</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.89580496978793</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.6116181310688</v>
+        <v>129.9363316527909</v>
       </c>
       <c r="S10" t="n">
-        <v>205.535813703617</v>
+        <v>205.6616680952752</v>
       </c>
       <c r="T10" t="n">
-        <v>223.4145677085752</v>
+        <v>223.4454240278654</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2611865260266</v>
+        <v>286.2615804364856</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>33.70484924931222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.364095583466981</v>
+        <v>2.347996060518601</v>
       </c>
       <c r="H8" t="n">
-        <v>24.21129389418123</v>
+        <v>24.04641465478612</v>
       </c>
       <c r="I8" t="n">
-        <v>91.14179498161089</v>
+        <v>90.52111812314342</v>
       </c>
       <c r="J8" t="n">
-        <v>200.6496575272809</v>
+        <v>199.2832306414408</v>
       </c>
       <c r="K8" t="n">
-        <v>300.7218235754383</v>
+        <v>298.6739038831931</v>
       </c>
       <c r="L8" t="n">
-        <v>373.072013787966</v>
+        <v>370.5313883202894</v>
       </c>
       <c r="M8" t="n">
-        <v>415.1144986204469</v>
+        <v>412.287563261537</v>
       </c>
       <c r="N8" t="n">
-        <v>421.8314851969725</v>
+        <v>418.9588070684855</v>
       </c>
       <c r="O8" t="n">
-        <v>398.3235097388727</v>
+        <v>395.6109212417036</v>
       </c>
       <c r="P8" t="n">
-        <v>339.9599000220315</v>
+        <v>337.6447684976507</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.2957269391202</v>
+        <v>253.5571595803282</v>
       </c>
       <c r="R8" t="n">
-        <v>148.5036191949579</v>
+        <v>147.4923075365517</v>
       </c>
       <c r="S8" t="n">
-        <v>53.87182810825389</v>
+        <v>53.50496022906766</v>
       </c>
       <c r="T8" t="n">
-        <v>10.34882841662672</v>
+        <v>10.27835275492018</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1891276466773585</v>
+        <v>0.187839684841488</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.264902651097452</v>
+        <v>1.256288646908609</v>
       </c>
       <c r="H9" t="n">
-        <v>12.21629665665171</v>
+        <v>12.13310351093314</v>
       </c>
       <c r="I9" t="n">
-        <v>43.55037636453949</v>
+        <v>43.2537977115464</v>
       </c>
       <c r="J9" t="n">
-        <v>119.5055614354834</v>
+        <v>118.6917269432384</v>
       </c>
       <c r="K9" t="n">
-        <v>204.2540390590128</v>
+        <v>202.8630662861151</v>
       </c>
       <c r="L9" t="n">
-        <v>274.644762028857</v>
+        <v>272.7744274789942</v>
       </c>
       <c r="M9" t="n">
-        <v>320.4974831311395</v>
+        <v>318.3148909294312</v>
       </c>
       <c r="N9" t="n">
-        <v>328.9800978395958</v>
+        <v>326.739738916814</v>
       </c>
       <c r="O9" t="n">
-        <v>300.9525180442259</v>
+        <v>298.9030273195232</v>
       </c>
       <c r="P9" t="n">
-        <v>241.5409281731618</v>
+        <v>239.8960311802939</v>
       </c>
       <c r="Q9" t="n">
-        <v>161.4637138488608</v>
+        <v>160.3641437702989</v>
       </c>
       <c r="R9" t="n">
-        <v>78.53492074094537</v>
+        <v>78.00009686683453</v>
       </c>
       <c r="S9" t="n">
-        <v>23.49501196227065</v>
+        <v>23.33501061253489</v>
       </c>
       <c r="T9" t="n">
-        <v>5.098445334905958</v>
+        <v>5.063724853109697</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08321727967746401</v>
+        <v>0.0826505688755664</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.060451891846153</v>
+        <v>1.053230200097381</v>
       </c>
       <c r="H10" t="n">
-        <v>9.428381365686711</v>
+        <v>9.364173960865813</v>
       </c>
       <c r="I10" t="n">
-        <v>31.89068052933704</v>
+        <v>31.67350456292852</v>
       </c>
       <c r="J10" t="n">
-        <v>74.973948753523</v>
+        <v>74.46337514688484</v>
       </c>
       <c r="K10" t="n">
-        <v>123.2052288890348</v>
+        <v>122.3661996113139</v>
       </c>
       <c r="L10" t="n">
-        <v>157.6602749022908</v>
+        <v>156.5866062944779</v>
       </c>
       <c r="M10" t="n">
-        <v>166.2306542827565</v>
+        <v>165.0986212752649</v>
       </c>
       <c r="N10" t="n">
-        <v>162.2780608676937</v>
+        <v>161.1729450749021</v>
       </c>
       <c r="O10" t="n">
-        <v>149.8900546765817</v>
+        <v>148.8693013737644</v>
       </c>
       <c r="P10" t="n">
-        <v>128.2568360829201</v>
+        <v>127.3834052917777</v>
       </c>
       <c r="Q10" t="n">
-        <v>88.79838523449922</v>
+        <v>88.19366702815435</v>
       </c>
       <c r="R10" t="n">
-        <v>47.68177324610064</v>
+        <v>47.35705972437859</v>
       </c>
       <c r="S10" t="n">
-        <v>18.48078433335522</v>
+        <v>18.35492994169708</v>
       </c>
       <c r="T10" t="n">
-        <v>4.531021719706288</v>
+        <v>4.500165400416082</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05784283046433567</v>
+        <v>0.05744892000531176</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31870,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31919,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31937,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,7 +32566,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33040,7 +33040,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33280,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>33.93991247395533</v>
       </c>
       <c r="N2" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="O2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>33.93991247395533</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>28.63848405005938</v>
+      </c>
+      <c r="P3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="N3" t="n">
-        <v>32.56860287904804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>31.71334579105919</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>30.55594983196189</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
+        <v>30.55594983196189</v>
+      </c>
+      <c r="Q6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>19.60375300059462</v>
+        <v>18.23732611475447</v>
       </c>
       <c r="K8" t="n">
-        <v>80.63197253045774</v>
+        <v>78.58405283821259</v>
       </c>
       <c r="L8" t="n">
-        <v>137.3055988179788</v>
+        <v>134.7649733503021</v>
       </c>
       <c r="M8" t="n">
-        <v>184.7682653931742</v>
+        <v>181.9413300342643</v>
       </c>
       <c r="N8" t="n">
-        <v>192.4184216003816</v>
+        <v>251.1390007463961</v>
       </c>
       <c r="O8" t="n">
-        <v>168.225298317186</v>
+        <v>165.5127098200169</v>
       </c>
       <c r="P8" t="n">
-        <v>108.726904266762</v>
+        <v>106.4117727423811</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.3775077119832</v>
+        <v>57.81780700606902</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>118.7589701092256</v>
+        <v>117.9451356169805</v>
       </c>
       <c r="K9" t="n">
-        <v>66.41260008465377</v>
+        <v>65.02162731175613</v>
       </c>
       <c r="L9" t="n">
-        <v>136.0903822489828</v>
+        <v>134.22004769912</v>
       </c>
       <c r="M9" t="n">
-        <v>178.3634492091212</v>
+        <v>176.1808570074129</v>
       </c>
       <c r="N9" t="n">
-        <v>197.6383857562625</v>
+        <v>195.3980268334807</v>
       </c>
       <c r="O9" t="n">
-        <v>158.3562735997814</v>
+        <v>156.3067828750788</v>
       </c>
       <c r="P9" t="n">
-        <v>107.5665207588316</v>
+        <v>128.95412562429</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.87113987165908</v>
+        <v>20.38236968427739</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>100.935737063152</v>
+        <v>100.096707785431</v>
       </c>
       <c r="L10" t="n">
-        <v>185.2503001626069</v>
+        <v>184.1766315547941</v>
       </c>
       <c r="M10" t="n">
-        <v>205.814531244597</v>
+        <v>204.6824982371055</v>
       </c>
       <c r="N10" t="n">
-        <v>206.4102332469222</v>
+        <v>205.3051174541307</v>
       </c>
       <c r="O10" t="n">
-        <v>174.4751825906214</v>
+        <v>173.4544292878041</v>
       </c>
       <c r="P10" t="n">
-        <v>125.5353953478136</v>
+        <v>124.6619645566712</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.636341982804836</v>
+        <v>2.031623776459966</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>589.9784546932459</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302257</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37861,7 +37861,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
